--- a/开心果园.xlsx
+++ b/开心果园.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView minimized="1" xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>QQ</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -210,14 +210,22 @@
   </si>
   <si>
     <t>爱你用电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>叶行保</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>庭坚</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -278,7 +286,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -352,6 +360,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -386,6 +395,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -561,14 +571,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.75" customWidth="1"/>
@@ -576,7 +586,7 @@
     <col min="6" max="6" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -596,7 +606,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>796</v>
       </c>
@@ -616,7 +626,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>855</v>
       </c>
@@ -636,7 +646,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>990</v>
       </c>
@@ -656,7 +666,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C5" t="s">
         <v>15</v>
       </c>
@@ -667,7 +677,7 @@
         <v>20131007</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>967</v>
       </c>
@@ -687,7 +697,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>145</v>
       </c>
@@ -707,7 +717,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>397</v>
       </c>
@@ -727,7 +737,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>193</v>
       </c>
@@ -747,7 +757,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>618</v>
       </c>
@@ -764,7 +774,7 @@
         <v>20131009</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>143</v>
       </c>
@@ -781,7 +791,7 @@
         <v>20131009</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>527</v>
       </c>
@@ -801,7 +811,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>711</v>
       </c>
@@ -818,7 +828,7 @@
         <v>20131010</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>935</v>
       </c>
@@ -835,7 +845,7 @@
         <v>20131010</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>280</v>
       </c>
@@ -852,7 +862,7 @@
         <v>20131010</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>737</v>
       </c>
@@ -869,7 +879,7 @@
         <v>20131011</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>167</v>
       </c>
@@ -886,7 +896,7 @@
         <v>20131011</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>716</v>
       </c>
@@ -901,6 +911,23 @@
       </c>
       <c r="E18">
         <v>20131011</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>913</v>
+      </c>
+      <c r="B19">
+        <v>1735400402</v>
+      </c>
+      <c r="C19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19">
+        <v>20131012</v>
       </c>
     </row>
   </sheetData>
@@ -911,12 +938,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -925,12 +952,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/开心果园.xlsx
+++ b/开心果园.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="10275" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>QQ</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -218,6 +218,14 @@
   </si>
   <si>
     <t>庭坚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>岁月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天字号当铺1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -572,15 +580,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.75" customWidth="1"/>
     <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.5" customWidth="1"/>
@@ -928,6 +937,20 @@
       </c>
       <c r="E19">
         <v>20131012</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>624</v>
+      </c>
+      <c r="B20">
+        <v>546175872</v>
+      </c>
+      <c r="C20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/开心果园.xlsx
+++ b/开心果园.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="10275" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>QQ</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -210,6 +210,46 @@
   </si>
   <si>
     <t>爱你用电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>叶行保</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>庭坚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>岁月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天字号当铺1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柏拉图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杰宝贝520ting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈二狗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">蓝其儿ky7 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>必然</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天雨来了</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -562,15 +602,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.75" customWidth="1"/>
     <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.5" customWidth="1"/>
@@ -901,6 +941,91 @@
       </c>
       <c r="E18">
         <v>20131011</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>913</v>
+      </c>
+      <c r="B19">
+        <v>1735400402</v>
+      </c>
+      <c r="C19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19">
+        <v>20131012</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A20">
+        <v>624</v>
+      </c>
+      <c r="B20">
+        <v>546175872</v>
+      </c>
+      <c r="C20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20">
+        <v>20131012</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>886</v>
+      </c>
+      <c r="B21">
+        <v>496273815</v>
+      </c>
+      <c r="C21" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21">
+        <v>20131013</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>692</v>
+      </c>
+      <c r="B22">
+        <v>1356622020</v>
+      </c>
+      <c r="C22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22">
+        <v>20131013</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>963</v>
+      </c>
+      <c r="B23">
+        <v>1195526579</v>
+      </c>
+      <c r="C23" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23">
+        <v>20131013</v>
       </c>
     </row>
   </sheetData>

--- a/开心果园.xlsx
+++ b/开心果园.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>QQ</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -226,6 +226,38 @@
   </si>
   <si>
     <t>天字号当铺1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柏拉图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杰宝贝520ting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈二狗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">蓝其儿ky7 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>必然</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天雨来了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>假情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈孟锟</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -580,16 +612,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.75" customWidth="1"/>
     <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.5" customWidth="1"/>
@@ -951,6 +982,77 @@
       </c>
       <c r="D20" s="1" t="s">
         <v>52</v>
+      </c>
+      <c r="E20">
+        <v>20131012</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>886</v>
+      </c>
+      <c r="B21">
+        <v>496273815</v>
+      </c>
+      <c r="C21" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21">
+        <v>20131013</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>692</v>
+      </c>
+      <c r="B22">
+        <v>1356622020</v>
+      </c>
+      <c r="C22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22">
+        <v>20131013</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>963</v>
+      </c>
+      <c r="B23">
+        <v>1195526579</v>
+      </c>
+      <c r="C23" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23">
+        <v>20131013</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>41</v>
+      </c>
+      <c r="B24">
+        <v>1628666197</v>
+      </c>
+      <c r="C24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E24">
+        <v>20131014</v>
       </c>
     </row>
   </sheetData>

--- a/开心果园.xlsx
+++ b/开心果园.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>QQ</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -258,6 +258,14 @@
   </si>
   <si>
     <t>陈孟锟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雅子3156</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -612,10 +620,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1052,6 +1060,23 @@
         <v>60</v>
       </c>
       <c r="E24">
+        <v>20131014</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>274</v>
+      </c>
+      <c r="B25">
+        <v>762745630</v>
+      </c>
+      <c r="C25" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E25">
         <v>20131014</v>
       </c>
     </row>

--- a/开心果园.xlsx
+++ b/开心果园.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="10275" windowWidth="19200" windowHeight="11640"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t>QQ</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -266,14 +266,30 @@
   </si>
   <si>
     <t>雅子3156</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小雨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月亮蓝xien</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小鲁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>就着白饭下酒</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -334,7 +350,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -408,7 +424,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -443,7 +458,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -619,14 +633,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="3" width="11.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.75" customWidth="1"/>
@@ -634,7 +648,7 @@
     <col min="6" max="6" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -654,7 +668,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>796</v>
       </c>
@@ -674,7 +688,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>855</v>
       </c>
@@ -694,7 +708,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>990</v>
       </c>
@@ -714,7 +728,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6">
       <c r="C5" t="s">
         <v>15</v>
       </c>
@@ -725,7 +739,7 @@
         <v>20131007</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>967</v>
       </c>
@@ -745,7 +759,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>145</v>
       </c>
@@ -765,7 +779,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>397</v>
       </c>
@@ -785,7 +799,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>193</v>
       </c>
@@ -805,7 +819,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>618</v>
       </c>
@@ -822,7 +836,7 @@
         <v>20131009</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>143</v>
       </c>
@@ -839,7 +853,7 @@
         <v>20131009</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>527</v>
       </c>
@@ -859,7 +873,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>711</v>
       </c>
@@ -876,7 +890,7 @@
         <v>20131010</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>935</v>
       </c>
@@ -893,7 +907,7 @@
         <v>20131010</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>280</v>
       </c>
@@ -910,7 +924,7 @@
         <v>20131010</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>737</v>
       </c>
@@ -927,7 +941,7 @@
         <v>20131011</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>167</v>
       </c>
@@ -944,7 +958,7 @@
         <v>20131011</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>716</v>
       </c>
@@ -961,7 +975,7 @@
         <v>20131011</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5">
       <c r="A19">
         <v>913</v>
       </c>
@@ -978,7 +992,7 @@
         <v>20131012</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5" ht="17.25" customHeight="1">
       <c r="A20">
         <v>624</v>
       </c>
@@ -995,7 +1009,7 @@
         <v>20131012</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5">
       <c r="A21">
         <v>886</v>
       </c>
@@ -1012,7 +1026,7 @@
         <v>20131013</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5">
       <c r="A22">
         <v>692</v>
       </c>
@@ -1029,7 +1043,7 @@
         <v>20131013</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5">
       <c r="A23">
         <v>963</v>
       </c>
@@ -1046,7 +1060,7 @@
         <v>20131013</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5">
       <c r="A24">
         <v>41</v>
       </c>
@@ -1063,7 +1077,7 @@
         <v>20131014</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5">
       <c r="A25">
         <v>274</v>
       </c>
@@ -1077,6 +1091,40 @@
         <v>62</v>
       </c>
       <c r="E25">
+        <v>20131014</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>687</v>
+      </c>
+      <c r="B26">
+        <v>1193219632</v>
+      </c>
+      <c r="C26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26">
+        <v>20131014</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>880</v>
+      </c>
+      <c r="B27">
+        <v>41732893</v>
+      </c>
+      <c r="C27" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E27">
         <v>20131014</v>
       </c>
     </row>
@@ -1088,12 +1136,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1102,12 +1150,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/开心果园.xlsx
+++ b/开心果园.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
     <t>QQ</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -90,198 +90,230 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>浙江省 温州市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微笑的太阳521</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厚生侬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江苏省 苏州市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳跳虎5552</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厦门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甜蜜蜜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(601220136);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>193*阚剑</t>
+  </si>
+  <si>
+    <t>ddongliang6212</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东省 东莞市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拼命三娘丶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>容嬷嬷丶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天堂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我是超级大超级大帅哥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天河</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 广东省 广州市 荔湾区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>靓仔来啦88</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狼的天下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李牌电子机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">小丸子  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xuliusixu2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我要逛街1988</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先锋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gaomobvz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>醒悟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欧阳帅锅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花香</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱你用电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>叶行保</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>庭坚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>岁月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天字号当铺1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柏拉图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杰宝贝520ting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈二狗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">蓝其儿ky7 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>必然</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天雨来了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>假情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈孟锟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雅子3156</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小雨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月亮蓝xien</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小鲁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>就着白饭下酒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>caidabian08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尛尛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">哭和笑66 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>yangshucao</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>浙江省 温州市</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>微笑的太阳521</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>厚生侬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>江苏省 苏州市</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>跳跳虎5552</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>厦门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>甜蜜蜜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(601220136);</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>193*阚剑</t>
-  </si>
-  <si>
-    <t>ddongliang6212</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广东省 东莞市</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拼命三娘丶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>容嬷嬷丶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天堂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我是超级大超级大帅哥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天河</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 广东省 广州市 荔湾区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>靓仔来啦88</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狼的天下</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李牌电子机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">小丸子  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xuliusixu2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小水</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我要逛街1988</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>先锋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gaomobvz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>醒悟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>欧阳帅锅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>花香</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>爱你用电</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>叶行保</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>庭坚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>岁月</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天字号当铺1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>柏拉图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杰宝贝520ting</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈二狗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">蓝其儿ky7 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>必然</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>今天雨来了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>假情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈孟锟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>石头</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雅子3156</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小雨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>月亮蓝xien</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小鲁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>就着白饭下酒</t>
+    <t>无籽小丸子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浅唱e调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浅唱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -634,10 +666,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -750,13 +782,13 @@
         <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="E6">
         <v>20131007</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -767,16 +799,16 @@
         <v>21022514</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7">
         <v>20131008</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -787,16 +819,16 @@
         <v>501278495</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>20131009</v>
       </c>
       <c r="F8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -804,19 +836,19 @@
         <v>193</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
         <v>26</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>28</v>
       </c>
       <c r="E9">
         <v>20131009</v>
       </c>
       <c r="F9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -827,10 +859,10 @@
         <v>452706128</v>
       </c>
       <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" t="s">
         <v>30</v>
-      </c>
-      <c r="D10" t="s">
-        <v>31</v>
       </c>
       <c r="E10">
         <v>20131009</v>
@@ -844,10 +876,10 @@
         <v>517782454</v>
       </c>
       <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
         <v>32</v>
-      </c>
-      <c r="D11" t="s">
-        <v>33</v>
       </c>
       <c r="E11">
         <v>20131009</v>
@@ -861,16 +893,16 @@
         <v>449126028</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E12">
         <v>20131010</v>
       </c>
       <c r="F12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -881,10 +913,10 @@
         <v>254489858</v>
       </c>
       <c r="C13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" t="s">
         <v>37</v>
-      </c>
-      <c r="D13" t="s">
-        <v>38</v>
       </c>
       <c r="E13">
         <v>20131010</v>
@@ -898,10 +930,10 @@
         <v>361615017</v>
       </c>
       <c r="C14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" t="s">
         <v>39</v>
-      </c>
-      <c r="D14" t="s">
-        <v>40</v>
       </c>
       <c r="E14">
         <v>20131010</v>
@@ -915,10 +947,10 @@
         <v>584073285</v>
       </c>
       <c r="C15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" t="s">
         <v>45</v>
-      </c>
-      <c r="D15" t="s">
-        <v>46</v>
       </c>
       <c r="E15">
         <v>20131010</v>
@@ -932,10 +964,10 @@
         <v>736643299</v>
       </c>
       <c r="C16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" t="s">
         <v>41</v>
-      </c>
-      <c r="D16" t="s">
-        <v>42</v>
       </c>
       <c r="E16">
         <v>20131011</v>
@@ -949,10 +981,10 @@
         <v>314281260</v>
       </c>
       <c r="C17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" t="s">
         <v>43</v>
-      </c>
-      <c r="D17" t="s">
-        <v>44</v>
       </c>
       <c r="E17">
         <v>20131011</v>
@@ -966,10 +998,10 @@
         <v>929242458</v>
       </c>
       <c r="C18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" t="s">
         <v>47</v>
-      </c>
-      <c r="D18" t="s">
-        <v>48</v>
       </c>
       <c r="E18">
         <v>20131011</v>
@@ -983,10 +1015,10 @@
         <v>1735400402</v>
       </c>
       <c r="C19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E19">
         <v>20131012</v>
@@ -1000,10 +1032,10 @@
         <v>546175872</v>
       </c>
       <c r="C20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="E20">
         <v>20131012</v>
@@ -1017,10 +1049,10 @@
         <v>496273815</v>
       </c>
       <c r="C21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" t="s">
         <v>53</v>
-      </c>
-      <c r="D21" t="s">
-        <v>54</v>
       </c>
       <c r="E21">
         <v>20131013</v>
@@ -1034,10 +1066,10 @@
         <v>1356622020</v>
       </c>
       <c r="C22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" t="s">
         <v>55</v>
-      </c>
-      <c r="D22" t="s">
-        <v>56</v>
       </c>
       <c r="E22">
         <v>20131013</v>
@@ -1051,10 +1083,10 @@
         <v>1195526579</v>
       </c>
       <c r="C23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="E23">
         <v>20131013</v>
@@ -1068,10 +1100,10 @@
         <v>1628666197</v>
       </c>
       <c r="C24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="E24">
         <v>20131014</v>
@@ -1085,10 +1117,10 @@
         <v>762745630</v>
       </c>
       <c r="C25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="E25">
         <v>20131014</v>
@@ -1102,10 +1134,10 @@
         <v>1193219632</v>
       </c>
       <c r="C26" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="E26">
         <v>20131014</v>
@@ -1119,13 +1151,78 @@
         <v>41732893</v>
       </c>
       <c r="C27" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="E27">
         <v>20131014</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <v>429</v>
+      </c>
+      <c r="B28">
+        <v>601450649</v>
+      </c>
+      <c r="C28" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E28">
+        <v>20131015</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>958</v>
+      </c>
+      <c r="B29">
+        <v>1264356453</v>
+      </c>
+      <c r="C29" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E29">
+        <v>20131015</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <v>198</v>
+      </c>
+      <c r="B30">
+        <v>536474664</v>
+      </c>
+      <c r="C30" t="s">
+        <v>72</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E30">
+        <v>20131015</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31">
+        <v>404</v>
+      </c>
+      <c r="B31">
+        <v>541640122</v>
+      </c>
+      <c r="C31" t="s">
+        <v>74</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/开心果园.xlsx
+++ b/开心果园.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="10275" windowWidth="19200" windowHeight="11640"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
     <t>QQ</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -314,14 +314,30 @@
   </si>
   <si>
     <t>浅唱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zxc一仔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东仔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shoping_196809</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柠檬</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -382,7 +398,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -456,6 +472,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -490,6 +507,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -665,14 +683,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="3" width="11.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.75" customWidth="1"/>
@@ -680,7 +698,7 @@
     <col min="6" max="6" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -700,7 +718,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>796</v>
       </c>
@@ -720,7 +738,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>855</v>
       </c>
@@ -740,7 +758,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>990</v>
       </c>
@@ -760,7 +778,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C5" t="s">
         <v>15</v>
       </c>
@@ -771,7 +789,7 @@
         <v>20131007</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>967</v>
       </c>
@@ -791,7 +809,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>145</v>
       </c>
@@ -811,7 +829,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>397</v>
       </c>
@@ -831,7 +849,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>193</v>
       </c>
@@ -851,7 +869,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>618</v>
       </c>
@@ -868,7 +886,7 @@
         <v>20131009</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>143</v>
       </c>
@@ -885,7 +903,7 @@
         <v>20131009</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>527</v>
       </c>
@@ -905,7 +923,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>711</v>
       </c>
@@ -922,7 +940,7 @@
         <v>20131010</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>935</v>
       </c>
@@ -939,7 +957,7 @@
         <v>20131010</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>280</v>
       </c>
@@ -956,7 +974,7 @@
         <v>20131010</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>737</v>
       </c>
@@ -973,7 +991,7 @@
         <v>20131011</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>167</v>
       </c>
@@ -990,7 +1008,7 @@
         <v>20131011</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>716</v>
       </c>
@@ -1007,7 +1025,7 @@
         <v>20131011</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>913</v>
       </c>
@@ -1024,7 +1042,7 @@
         <v>20131012</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="17.25" customHeight="1">
+    <row r="20" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>624</v>
       </c>
@@ -1041,7 +1059,7 @@
         <v>20131012</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>886</v>
       </c>
@@ -1058,7 +1076,7 @@
         <v>20131013</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>692</v>
       </c>
@@ -1075,7 +1093,7 @@
         <v>20131013</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>963</v>
       </c>
@@ -1092,7 +1110,7 @@
         <v>20131013</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>41</v>
       </c>
@@ -1109,7 +1127,7 @@
         <v>20131014</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>274</v>
       </c>
@@ -1126,7 +1144,7 @@
         <v>20131014</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>687</v>
       </c>
@@ -1143,7 +1161,7 @@
         <v>20131014</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>880</v>
       </c>
@@ -1160,7 +1178,7 @@
         <v>20131014</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>429</v>
       </c>
@@ -1177,7 +1195,7 @@
         <v>20131015</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>958</v>
       </c>
@@ -1194,7 +1212,7 @@
         <v>20131015</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>198</v>
       </c>
@@ -1211,7 +1229,7 @@
         <v>20131015</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>404</v>
       </c>
@@ -1223,6 +1241,37 @@
       </c>
       <c r="D31" s="1" t="s">
         <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>833</v>
+      </c>
+      <c r="B32">
+        <v>1009490301</v>
+      </c>
+      <c r="C32" t="s">
+        <v>76</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E32">
+        <v>20131016</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>533</v>
+      </c>
+      <c r="B33">
+        <v>1569428495</v>
+      </c>
+      <c r="C33" t="s">
+        <v>78</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1233,12 +1282,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1247,12 +1296,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/开心果园.xlsx
+++ b/开心果园.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
   <si>
     <t>QQ</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -330,6 +330,14 @@
   </si>
   <si>
     <t>柠檬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渔火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安润猪</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -684,10 +692,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1272,6 +1280,20 @@
       </c>
       <c r="D33" s="1" t="s">
         <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>200</v>
+      </c>
+      <c r="B34">
+        <v>82224837</v>
+      </c>
+      <c r="C34" t="s">
+        <v>79</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/开心果园.xlsx
+++ b/开心果园.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="87">
   <si>
     <t>QQ</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -339,6 +339,29 @@
   <si>
     <t>安润猪</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酷森e尚品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回头客</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱购加加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拇指</t>
   </si>
 </sst>
 </file>
@@ -692,21 +715,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="3" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.75" customWidth="1"/>
-    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5" customWidth="1"/>
+    <col min="4" max="5" width="18.75" customWidth="1"/>
+    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -720,13 +743,16 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>796</v>
       </c>
@@ -739,14 +765,14 @@
       <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>20131006</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>855</v>
       </c>
@@ -759,14 +785,14 @@
       <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>20131006</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>990</v>
       </c>
@@ -779,25 +805,26 @@
       <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1"/>
+      <c r="F4">
         <v>20131007</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C5" t="s">
         <v>15</v>
       </c>
       <c r="D5" t="s">
         <v>16</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>20131007</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>967</v>
       </c>
@@ -810,14 +837,14 @@
       <c r="D6" t="s">
         <v>70</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>20131007</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>145</v>
       </c>
@@ -830,14 +857,14 @@
       <c r="D7" t="s">
         <v>19</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>20131008</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>397</v>
       </c>
@@ -850,14 +877,14 @@
       <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>20131009</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>193</v>
       </c>
@@ -870,14 +897,14 @@
       <c r="D9" t="s">
         <v>27</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>20131009</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>618</v>
       </c>
@@ -890,11 +917,11 @@
       <c r="D10" t="s">
         <v>30</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>20131009</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>143</v>
       </c>
@@ -907,11 +934,11 @@
       <c r="D11" t="s">
         <v>32</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>20131009</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>527</v>
       </c>
@@ -924,14 +951,14 @@
       <c r="D12" t="s">
         <v>35</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>20131010</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>711</v>
       </c>
@@ -944,11 +971,11 @@
       <c r="D13" t="s">
         <v>37</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>20131010</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>935</v>
       </c>
@@ -961,11 +988,11 @@
       <c r="D14" t="s">
         <v>39</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>20131010</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>280</v>
       </c>
@@ -978,11 +1005,11 @@
       <c r="D15" t="s">
         <v>45</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>20131010</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>737</v>
       </c>
@@ -995,11 +1022,11 @@
       <c r="D16" t="s">
         <v>41</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>20131011</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>167</v>
       </c>
@@ -1012,11 +1039,11 @@
       <c r="D17" t="s">
         <v>43</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>20131011</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>716</v>
       </c>
@@ -1029,11 +1056,11 @@
       <c r="D18" t="s">
         <v>47</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>20131011</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>913</v>
       </c>
@@ -1046,11 +1073,11 @@
       <c r="D19" t="s">
         <v>48</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>20131012</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>624</v>
       </c>
@@ -1063,11 +1090,12 @@
       <c r="D20" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="1"/>
+      <c r="F20">
         <v>20131012</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>886</v>
       </c>
@@ -1080,11 +1108,11 @@
       <c r="D21" t="s">
         <v>53</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>20131013</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>692</v>
       </c>
@@ -1097,11 +1125,11 @@
       <c r="D22" t="s">
         <v>55</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>20131013</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>963</v>
       </c>
@@ -1114,11 +1142,12 @@
       <c r="D23" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="1"/>
+      <c r="F23">
         <v>20131013</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>41</v>
       </c>
@@ -1131,11 +1160,12 @@
       <c r="D24" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="1"/>
+      <c r="F24">
         <v>20131014</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>274</v>
       </c>
@@ -1148,11 +1178,12 @@
       <c r="D25" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="1"/>
+      <c r="F25">
         <v>20131014</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>687</v>
       </c>
@@ -1165,11 +1196,12 @@
       <c r="D26" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="1"/>
+      <c r="F26">
         <v>20131014</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>880</v>
       </c>
@@ -1182,11 +1214,12 @@
       <c r="D27" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="1"/>
+      <c r="F27">
         <v>20131014</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>429</v>
       </c>
@@ -1199,11 +1232,12 @@
       <c r="D28" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="1"/>
+      <c r="F28">
         <v>20131015</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>958</v>
       </c>
@@ -1216,11 +1250,12 @@
       <c r="D29" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="1"/>
+      <c r="F29">
         <v>20131015</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>198</v>
       </c>
@@ -1233,11 +1268,12 @@
       <c r="D30" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="1"/>
+      <c r="F30">
         <v>20131015</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>404</v>
       </c>
@@ -1250,8 +1286,9 @@
       <c r="D31" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>833</v>
       </c>
@@ -1264,11 +1301,12 @@
       <c r="D32" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="1"/>
+      <c r="F32">
         <v>20131016</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>533</v>
       </c>
@@ -1281,8 +1319,9 @@
       <c r="D33" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>200</v>
       </c>
@@ -1294,6 +1333,59 @@
       </c>
       <c r="D34" s="1" t="s">
         <v>80</v>
+      </c>
+      <c r="E34" s="1"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>989</v>
+      </c>
+      <c r="B35">
+        <v>578586359</v>
+      </c>
+      <c r="C35" t="s">
+        <v>81</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E35" s="1"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>990</v>
+      </c>
+      <c r="B36">
+        <v>583651463</v>
+      </c>
+      <c r="C36" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F36">
+        <v>20131007</v>
+      </c>
+      <c r="G36" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>387</v>
+      </c>
+      <c r="B37">
+        <v>1024636223</v>
+      </c>
+      <c r="C37" t="s">
+        <v>86</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/开心果园.xlsx
+++ b/开心果园.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="10275" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="165" yWindow="6255" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="115">
   <si>
     <t>QQ</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -362,6 +362,118 @@
   </si>
   <si>
     <t>拇指</t>
+  </si>
+  <si>
+    <t>穿越2012年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马哥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jslgvekl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>算什</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今生今世只爱你1986</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>勇哥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>糖果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>叮当响小铃铛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">yexiangyu7329887 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小小仙[坑货]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摇摇鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tonghy15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淘我爱淘我好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>了解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忙着呢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花花世界1277</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zll1107104806</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>祝国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盛夏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小丑鱼8829</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否收菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ayumi8599 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马威</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林建明21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔术型男</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚空假面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>paul28459614</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -715,21 +827,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="3" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.75" customWidth="1"/>
-    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5" customWidth="1"/>
+    <col min="4" max="6" width="18.75" customWidth="1"/>
+    <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -743,16 +855,19 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1" t="s">
         <v>83</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>796</v>
       </c>
@@ -765,14 +880,17 @@
       <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="F2">
+      <c r="E2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G2">
         <v>20131006</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>855</v>
       </c>
@@ -785,14 +903,17 @@
       <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="F3">
+      <c r="E3" t="s">
+        <v>108</v>
+      </c>
+      <c r="G3">
         <v>20131006</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>990</v>
       </c>
@@ -805,26 +926,32 @@
       <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4">
+      <c r="E4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4">
         <v>20131007</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C5" t="s">
         <v>15</v>
       </c>
       <c r="D5" t="s">
         <v>16</v>
       </c>
-      <c r="F5">
+      <c r="E5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G5">
         <v>20131007</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>967</v>
       </c>
@@ -837,14 +964,17 @@
       <c r="D6" t="s">
         <v>70</v>
       </c>
-      <c r="F6">
+      <c r="E6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G6">
         <v>20131007</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>145</v>
       </c>
@@ -857,14 +987,17 @@
       <c r="D7" t="s">
         <v>19</v>
       </c>
-      <c r="F7">
+      <c r="E7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G7">
         <v>20131008</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>397</v>
       </c>
@@ -877,14 +1010,17 @@
       <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="F8">
+      <c r="E8" t="s">
+        <v>108</v>
+      </c>
+      <c r="G8">
         <v>20131009</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>193</v>
       </c>
@@ -897,14 +1033,17 @@
       <c r="D9" t="s">
         <v>27</v>
       </c>
-      <c r="F9">
+      <c r="E9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G9">
         <v>20131009</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>618</v>
       </c>
@@ -917,11 +1056,14 @@
       <c r="D10" t="s">
         <v>30</v>
       </c>
-      <c r="F10">
+      <c r="E10" t="s">
+        <v>108</v>
+      </c>
+      <c r="G10">
         <v>20131009</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>143</v>
       </c>
@@ -934,11 +1076,14 @@
       <c r="D11" t="s">
         <v>32</v>
       </c>
-      <c r="F11">
+      <c r="E11" t="s">
+        <v>108</v>
+      </c>
+      <c r="G11">
         <v>20131009</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>527</v>
       </c>
@@ -951,14 +1096,17 @@
       <c r="D12" t="s">
         <v>35</v>
       </c>
-      <c r="F12">
+      <c r="E12" t="s">
+        <v>108</v>
+      </c>
+      <c r="G12">
         <v>20131010</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>711</v>
       </c>
@@ -971,11 +1119,14 @@
       <c r="D13" t="s">
         <v>37</v>
       </c>
-      <c r="F13">
+      <c r="E13" t="s">
+        <v>108</v>
+      </c>
+      <c r="G13">
         <v>20131010</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>935</v>
       </c>
@@ -988,11 +1139,14 @@
       <c r="D14" t="s">
         <v>39</v>
       </c>
-      <c r="F14">
+      <c r="E14" t="s">
+        <v>108</v>
+      </c>
+      <c r="G14">
         <v>20131010</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>280</v>
       </c>
@@ -1005,11 +1159,14 @@
       <c r="D15" t="s">
         <v>45</v>
       </c>
-      <c r="F15">
+      <c r="E15" t="s">
+        <v>108</v>
+      </c>
+      <c r="G15">
         <v>20131010</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>737</v>
       </c>
@@ -1022,11 +1179,14 @@
       <c r="D16" t="s">
         <v>41</v>
       </c>
-      <c r="F16">
+      <c r="E16" t="s">
+        <v>108</v>
+      </c>
+      <c r="G16">
         <v>20131011</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>167</v>
       </c>
@@ -1039,11 +1199,14 @@
       <c r="D17" t="s">
         <v>43</v>
       </c>
-      <c r="F17">
+      <c r="E17" t="s">
+        <v>108</v>
+      </c>
+      <c r="G17">
         <v>20131011</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>716</v>
       </c>
@@ -1056,11 +1219,14 @@
       <c r="D18" t="s">
         <v>47</v>
       </c>
-      <c r="F18">
+      <c r="E18" t="s">
+        <v>108</v>
+      </c>
+      <c r="G18">
         <v>20131011</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>913</v>
       </c>
@@ -1073,11 +1239,14 @@
       <c r="D19" t="s">
         <v>48</v>
       </c>
-      <c r="F19">
+      <c r="E19" t="s">
+        <v>108</v>
+      </c>
+      <c r="G19">
         <v>20131012</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>624</v>
       </c>
@@ -1090,12 +1259,15 @@
       <c r="D20" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E20" s="1"/>
-      <c r="F20">
+      <c r="E20" t="s">
+        <v>108</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20">
         <v>20131012</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>886</v>
       </c>
@@ -1108,11 +1280,14 @@
       <c r="D21" t="s">
         <v>53</v>
       </c>
-      <c r="F21">
+      <c r="E21" t="s">
+        <v>108</v>
+      </c>
+      <c r="G21">
         <v>20131013</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>692</v>
       </c>
@@ -1125,11 +1300,14 @@
       <c r="D22" t="s">
         <v>55</v>
       </c>
-      <c r="F22">
+      <c r="E22" t="s">
+        <v>108</v>
+      </c>
+      <c r="G22">
         <v>20131013</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>963</v>
       </c>
@@ -1143,11 +1321,12 @@
         <v>57</v>
       </c>
       <c r="E23" s="1"/>
-      <c r="F23">
+      <c r="F23" s="1"/>
+      <c r="G23">
         <v>20131013</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>41</v>
       </c>
@@ -1161,11 +1340,12 @@
         <v>59</v>
       </c>
       <c r="E24" s="1"/>
-      <c r="F24">
+      <c r="F24" s="1"/>
+      <c r="G24">
         <v>20131014</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>274</v>
       </c>
@@ -1178,12 +1358,15 @@
       <c r="D25" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E25" s="1"/>
-      <c r="F25">
+      <c r="E25" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F25" s="1"/>
+      <c r="G25">
         <v>20131014</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>687</v>
       </c>
@@ -1196,12 +1379,15 @@
       <c r="D26" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E26" s="1"/>
-      <c r="F26">
+      <c r="E26" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F26" s="1"/>
+      <c r="G26">
         <v>20131014</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>880</v>
       </c>
@@ -1215,11 +1401,12 @@
         <v>65</v>
       </c>
       <c r="E27" s="1"/>
-      <c r="F27">
+      <c r="F27" s="1"/>
+      <c r="G27">
         <v>20131014</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>429</v>
       </c>
@@ -1233,11 +1420,12 @@
         <v>66</v>
       </c>
       <c r="E28" s="1"/>
-      <c r="F28">
+      <c r="F28" s="1"/>
+      <c r="G28">
         <v>20131015</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>958</v>
       </c>
@@ -1251,11 +1439,12 @@
         <v>68</v>
       </c>
       <c r="E29" s="1"/>
-      <c r="F29">
+      <c r="F29" s="1"/>
+      <c r="G29">
         <v>20131015</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>198</v>
       </c>
@@ -1269,11 +1458,12 @@
         <v>71</v>
       </c>
       <c r="E30" s="1"/>
-      <c r="F30">
+      <c r="F30" s="1"/>
+      <c r="G30">
         <v>20131015</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>404</v>
       </c>
@@ -1287,8 +1477,12 @@
         <v>73</v>
       </c>
       <c r="E31" s="1"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F31" s="1"/>
+      <c r="G31">
+        <v>20131015</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>833</v>
       </c>
@@ -1302,11 +1496,12 @@
         <v>75</v>
       </c>
       <c r="E32" s="1"/>
-      <c r="F32">
+      <c r="F32" s="1"/>
+      <c r="G32">
         <v>20131016</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>533</v>
       </c>
@@ -1320,8 +1515,12 @@
         <v>77</v>
       </c>
       <c r="E33" s="1"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F33" s="1"/>
+      <c r="G33">
+        <v>20131016</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>200</v>
       </c>
@@ -1335,8 +1534,12 @@
         <v>80</v>
       </c>
       <c r="E34" s="1"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F34" s="1"/>
+      <c r="G34">
+        <v>20131016</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>989</v>
       </c>
@@ -1350,8 +1553,12 @@
         <v>82</v>
       </c>
       <c r="E35" s="1"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F35" s="1"/>
+      <c r="G35">
+        <v>20131016</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>990</v>
       </c>
@@ -1364,17 +1571,18 @@
       <c r="D36" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E36" s="1"/>
+      <c r="F36" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>20131007</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>387</v>
       </c>
@@ -1386,6 +1594,238 @@
       </c>
       <c r="D37" s="1" t="s">
         <v>85</v>
+      </c>
+      <c r="E37" s="1"/>
+      <c r="G37">
+        <v>20131007</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>0</v>
+      </c>
+      <c r="B38">
+        <v>497366625</v>
+      </c>
+      <c r="C38" t="s">
+        <v>88</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E38" s="1"/>
+      <c r="G38">
+        <v>20131007</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>703</v>
+      </c>
+      <c r="B39">
+        <v>394513352</v>
+      </c>
+      <c r="C39" t="s">
+        <v>90</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E39" s="1"/>
+      <c r="G39">
+        <v>20131007</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <v>495</v>
+      </c>
+      <c r="B40">
+        <v>775826250</v>
+      </c>
+      <c r="C40" t="s">
+        <v>92</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E40" s="1"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>993</v>
+      </c>
+      <c r="B41">
+        <v>563787904</v>
+      </c>
+      <c r="C41" t="s">
+        <v>93</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E41" s="1"/>
+      <c r="G41">
+        <v>20131019</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <v>982</v>
+      </c>
+      <c r="B42">
+        <v>1850607531</v>
+      </c>
+      <c r="C42" t="s">
+        <v>96</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E42" s="1"/>
+      <c r="G42">
+        <v>20131019</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A43">
+        <v>341</v>
+      </c>
+      <c r="B43">
+        <v>578315584</v>
+      </c>
+      <c r="C43" t="s">
+        <v>97</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E43" s="1"/>
+      <c r="G43">
+        <v>20131019</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A44">
+        <v>632</v>
+      </c>
+      <c r="B44">
+        <v>88480640</v>
+      </c>
+      <c r="C44" t="s">
+        <v>100</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E44" s="1"/>
+      <c r="G44">
+        <v>20131019</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A45">
+        <v>100</v>
+      </c>
+      <c r="B45">
+        <v>27378813</v>
+      </c>
+      <c r="C45" t="s">
+        <v>101</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E45" s="1"/>
+      <c r="G45">
+        <v>20131020</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A46">
+        <v>547</v>
+      </c>
+      <c r="B46">
+        <v>499596534</v>
+      </c>
+      <c r="C46" t="s">
+        <v>104</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E46" s="1"/>
+      <c r="G46">
+        <v>20131020</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A47">
+        <v>37</v>
+      </c>
+      <c r="B47">
+        <v>470879658</v>
+      </c>
+      <c r="C47" t="s">
+        <v>105</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E47" s="1"/>
+      <c r="G47">
+        <v>20131020</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A48">
+        <v>340</v>
+      </c>
+      <c r="B48">
+        <v>262378567</v>
+      </c>
+      <c r="C48" t="s">
+        <v>112</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G48">
+        <v>20131021</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A49">
+        <v>956</v>
+      </c>
+      <c r="B49">
+        <v>460482563</v>
+      </c>
+      <c r="C49" t="s">
+        <v>110</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G49">
+        <v>20131021</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A50">
+        <v>976</v>
+      </c>
+      <c r="B50">
+        <v>529661869</v>
+      </c>
+      <c r="C50" t="s">
+        <v>113</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G50">
+        <v>20131021</v>
       </c>
     </row>
   </sheetData>

--- a/开心果园.xlsx
+++ b/开心果园.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="121">
   <si>
     <t>QQ</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -473,6 +473,30 @@
   </si>
   <si>
     <t>paul28459614</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔡大骚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">华北采购008 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在路上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏小花008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">S∷ωěi </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -827,10 +851,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H50"/>
+  <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1826,6 +1850,74 @@
       </c>
       <c r="G50">
         <v>20131021</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A51">
+        <v>167</v>
+      </c>
+      <c r="B51">
+        <v>314281260</v>
+      </c>
+      <c r="C51" t="s">
+        <v>42</v>
+      </c>
+      <c r="D51" t="s">
+        <v>43</v>
+      </c>
+      <c r="F51" t="s">
+        <v>115</v>
+      </c>
+      <c r="G51">
+        <v>20131022</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A52">
+        <v>429</v>
+      </c>
+      <c r="B52">
+        <v>601450649</v>
+      </c>
+      <c r="C52" t="s">
+        <v>67</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G52">
+        <v>20131022</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A53">
+        <v>359</v>
+      </c>
+      <c r="B53">
+        <v>282015757</v>
+      </c>
+      <c r="C53" t="s">
+        <v>118</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G53">
+        <v>20131023</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A54">
+        <v>545</v>
+      </c>
+      <c r="B54">
+        <v>394905459</v>
+      </c>
+      <c r="C54" t="s">
+        <v>120</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/开心果园.xlsx
+++ b/开心果园.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="165" yWindow="6255" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="2295" yWindow="-15" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="147">
   <si>
     <t>QQ</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -476,35 +476,138 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>蔡大骚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">华北采购008 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在路上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏小花008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">S∷ωěi </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赤脚天使</t>
+  </si>
+  <si>
+    <t>夏天130516</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>是</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>蔡大骚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">华北采购008 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在路上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>夏小花008</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">S∷ωěi </t>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:24:01
+533*柠檬    978*立春 976*虚空假面 977*雨泺 961*往事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ruhua2010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 937*LION    833*东仔  540*宝贝 124*员外    961*往事186速度报名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>员外</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>panshengkai868</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>201*清洁990*彩雨叻崎(283*不苟553*柠檬958*心871*乐霸(218*望成961*往事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移沿山村</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>望城岗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>961*往事 246*丝娜 618*三娘 978*立春</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">去西藏拉扯 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>936*酱油 527*天河397*甜蜜蜜145*厚生961*往事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>琪琪爱购物58</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厚生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酱油</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宇城易购</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回忆有点假</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舞舞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>961*往事530*归原956*马威826*桃桃936*酱油</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">961*往事687*小雨349*舞舞 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb174800_99</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wxg11559</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一畔紫薇</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -517,6 +620,22 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -543,11 +662,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -565,7 +690,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -639,7 +764,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -674,7 +798,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -850,14 +973,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H54"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F58" sqref="F58"/>
+    <sheetView tabSelected="1" topLeftCell="B31" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="3" width="11.625" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="18.75" customWidth="1"/>
@@ -865,7 +988,7 @@
     <col min="8" max="8" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -891,7 +1014,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>796</v>
       </c>
@@ -914,7 +1037,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>855</v>
       </c>
@@ -937,7 +1060,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>990</v>
       </c>
@@ -961,7 +1084,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="C5" t="s">
         <v>15</v>
       </c>
@@ -975,7 +1098,7 @@
         <v>20131007</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>967</v>
       </c>
@@ -998,7 +1121,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>145</v>
       </c>
@@ -1021,7 +1144,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>397</v>
       </c>
@@ -1044,7 +1167,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>193</v>
       </c>
@@ -1067,7 +1190,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>618</v>
       </c>
@@ -1087,7 +1210,7 @@
         <v>20131009</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>143</v>
       </c>
@@ -1107,7 +1230,7 @@
         <v>20131009</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>527</v>
       </c>
@@ -1130,7 +1253,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>711</v>
       </c>
@@ -1150,7 +1273,7 @@
         <v>20131010</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>935</v>
       </c>
@@ -1170,7 +1293,7 @@
         <v>20131010</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8">
       <c r="A15">
         <v>280</v>
       </c>
@@ -1190,7 +1313,7 @@
         <v>20131010</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8">
       <c r="A16">
         <v>737</v>
       </c>
@@ -1210,7 +1333,7 @@
         <v>20131011</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>167</v>
       </c>
@@ -1230,7 +1353,7 @@
         <v>20131011</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>716</v>
       </c>
@@ -1250,7 +1373,7 @@
         <v>20131011</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>913</v>
       </c>
@@ -1270,7 +1393,7 @@
         <v>20131012</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" ht="17.25" customHeight="1">
       <c r="A20">
         <v>624</v>
       </c>
@@ -1291,7 +1414,7 @@
         <v>20131012</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7">
       <c r="A21">
         <v>886</v>
       </c>
@@ -1311,7 +1434,7 @@
         <v>20131013</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7">
       <c r="A22">
         <v>692</v>
       </c>
@@ -1331,7 +1454,7 @@
         <v>20131013</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7">
       <c r="A23">
         <v>963</v>
       </c>
@@ -1350,7 +1473,7 @@
         <v>20131013</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7">
       <c r="A24">
         <v>41</v>
       </c>
@@ -1369,7 +1492,7 @@
         <v>20131014</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7">
       <c r="A25">
         <v>274</v>
       </c>
@@ -1390,7 +1513,7 @@
         <v>20131014</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7">
       <c r="A26">
         <v>687</v>
       </c>
@@ -1411,7 +1534,7 @@
         <v>20131014</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7">
       <c r="A27">
         <v>880</v>
       </c>
@@ -1430,7 +1553,7 @@
         <v>20131014</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7">
       <c r="A28">
         <v>429</v>
       </c>
@@ -1449,7 +1572,7 @@
         <v>20131015</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7">
       <c r="A29">
         <v>958</v>
       </c>
@@ -1468,7 +1591,7 @@
         <v>20131015</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:7">
       <c r="A30">
         <v>198</v>
       </c>
@@ -1487,7 +1610,7 @@
         <v>20131015</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:7">
       <c r="A31">
         <v>404</v>
       </c>
@@ -1506,7 +1629,7 @@
         <v>20131015</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:7">
       <c r="A32">
         <v>833</v>
       </c>
@@ -1525,7 +1648,7 @@
         <v>20131016</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:8">
       <c r="A33">
         <v>533</v>
       </c>
@@ -1544,7 +1667,7 @@
         <v>20131016</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:8">
       <c r="A34">
         <v>200</v>
       </c>
@@ -1563,7 +1686,7 @@
         <v>20131016</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:8">
       <c r="A35">
         <v>989</v>
       </c>
@@ -1582,7 +1705,7 @@
         <v>20131016</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:8">
       <c r="A36">
         <v>990</v>
       </c>
@@ -1606,7 +1729,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:8">
       <c r="A37">
         <v>387</v>
       </c>
@@ -1624,7 +1747,7 @@
         <v>20131007</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:8">
       <c r="A38">
         <v>0</v>
       </c>
@@ -1642,7 +1765,7 @@
         <v>20131007</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:8">
       <c r="A39">
         <v>703</v>
       </c>
@@ -1660,7 +1783,7 @@
         <v>20131007</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:8">
       <c r="A40">
         <v>495</v>
       </c>
@@ -1675,7 +1798,7 @@
       </c>
       <c r="E40" s="1"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:8">
       <c r="A41">
         <v>993</v>
       </c>
@@ -1693,25 +1816,25 @@
         <v>20131019</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A42">
+    <row r="42" spans="1:8" s="2" customFormat="1">
+      <c r="A42" s="2">
         <v>982</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="2">
         <v>1850607531</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="E42" s="1"/>
-      <c r="G42">
+      <c r="E42" s="3"/>
+      <c r="G42" s="2">
         <v>20131019</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:8">
       <c r="A43">
         <v>341</v>
       </c>
@@ -1729,7 +1852,7 @@
         <v>20131019</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:8">
       <c r="A44">
         <v>632</v>
       </c>
@@ -1747,7 +1870,7 @@
         <v>20131019</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:8">
       <c r="A45">
         <v>100</v>
       </c>
@@ -1765,7 +1888,7 @@
         <v>20131020</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:8">
       <c r="A46">
         <v>547</v>
       </c>
@@ -1783,7 +1906,7 @@
         <v>20131020</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:8">
       <c r="A47">
         <v>37</v>
       </c>
@@ -1801,7 +1924,7 @@
         <v>20131020</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:8">
       <c r="A48">
         <v>340</v>
       </c>
@@ -1818,7 +1941,7 @@
         <v>20131021</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:9">
       <c r="A49">
         <v>956</v>
       </c>
@@ -1835,7 +1958,7 @@
         <v>20131021</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:9">
       <c r="A50">
         <v>976</v>
       </c>
@@ -1852,7 +1975,7 @@
         <v>20131021</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:9">
       <c r="A51">
         <v>167</v>
       </c>
@@ -1866,13 +1989,13 @@
         <v>43</v>
       </c>
       <c r="F51" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="G51">
         <v>20131022</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:9">
       <c r="A52">
         <v>429</v>
       </c>
@@ -1883,41 +2006,302 @@
         <v>67</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G52">
         <v>20131022</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:9">
       <c r="A53">
-        <v>359</v>
+        <v>222</v>
       </c>
       <c r="B53">
-        <v>282015757</v>
+        <v>309722823</v>
       </c>
       <c r="C53" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="G53">
         <v>20131023</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:9">
       <c r="A54">
+        <v>359</v>
+      </c>
+      <c r="B54">
+        <v>282015757</v>
+      </c>
+      <c r="C54" t="s">
+        <v>117</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G54">
+        <v>20131023</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55">
         <v>545</v>
       </c>
-      <c r="B54">
+      <c r="B55">
         <v>394905459</v>
       </c>
-      <c r="C54" t="s">
-        <v>120</v>
-      </c>
-      <c r="D54" s="1" t="s">
+      <c r="C55" t="s">
         <v>119</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G55">
+        <v>20131024</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56">
+        <v>533</v>
+      </c>
+      <c r="B56">
+        <v>1569428495</v>
+      </c>
+      <c r="C56" t="s">
+        <v>78</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G56">
+        <v>20131025</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57">
+        <v>143</v>
+      </c>
+      <c r="B57">
+        <v>517782454</v>
+      </c>
+      <c r="C57" t="s">
+        <v>31</v>
+      </c>
+      <c r="D57" t="s">
+        <v>32</v>
+      </c>
+      <c r="F57" t="s">
+        <v>123</v>
+      </c>
+      <c r="G57">
+        <v>20131009</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="94.5">
+      <c r="A58">
+        <v>977</v>
+      </c>
+      <c r="B58">
+        <v>270979221</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G58">
+        <v>20131026</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59">
+        <v>124</v>
+      </c>
+      <c r="B59">
+        <v>373168212</v>
+      </c>
+      <c r="C59" t="s">
+        <v>127</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59">
+        <v>20131026</v>
+      </c>
+      <c r="I59" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60">
+        <v>218</v>
+      </c>
+      <c r="B60">
+        <v>909228865</v>
+      </c>
+      <c r="C60" t="s">
+        <v>131</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="I60" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61">
+        <v>527</v>
+      </c>
+      <c r="B61">
+        <v>449126028</v>
+      </c>
+      <c r="C61" t="s">
+        <v>33</v>
+      </c>
+      <c r="D61" t="s">
+        <v>35</v>
+      </c>
+      <c r="F61" t="s">
+        <v>132</v>
+      </c>
+      <c r="G61">
+        <v>20131028</v>
+      </c>
+      <c r="H61" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62">
+        <v>978</v>
+      </c>
+      <c r="B62">
+        <v>447571329</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G62">
+        <v>20131028</v>
+      </c>
+      <c r="I62" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63">
+        <v>145</v>
+      </c>
+      <c r="B63">
+        <v>21022514</v>
+      </c>
+      <c r="C63" t="s">
+        <v>137</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G63">
+        <v>20131028</v>
+      </c>
+      <c r="I63" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64">
+        <v>935</v>
+      </c>
+      <c r="B64">
+        <v>361615017</v>
+      </c>
+      <c r="C64" t="s">
+        <v>38</v>
+      </c>
+      <c r="D64" t="s">
+        <v>39</v>
+      </c>
+      <c r="E64" t="s">
+        <v>84</v>
+      </c>
+      <c r="G64">
+        <v>20131103</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65">
+        <v>936</v>
+      </c>
+      <c r="B65">
+        <v>364144013</v>
+      </c>
+      <c r="C65" t="s">
+        <v>138</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G65">
+        <v>20131004</v>
+      </c>
+      <c r="I65" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66">
+        <v>349</v>
+      </c>
+      <c r="B66">
+        <v>1746035119</v>
+      </c>
+      <c r="C66" t="s">
+        <v>141</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G66">
+        <v>20131004</v>
+      </c>
+      <c r="I66" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="D67" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G67">
+        <v>20131004</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="D68" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G68">
+        <v>20131004</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="D69" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G69">
+        <v>20131004</v>
       </c>
     </row>
   </sheetData>
@@ -1928,12 +2312,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1942,12 +2326,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/开心果园.xlsx
+++ b/开心果园.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="150">
   <si>
     <t>QQ</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -511,11 +511,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10:24:01
-533*柠檬    978*立春 976*虚空假面 977*雨泺 961*往事</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ruhua2010</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -600,6 +595,22 @@
   </si>
   <si>
     <t>一畔紫薇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>961*往事980*仁可973*小沫687*小雨937*LION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200*渔火 533*柠檬 567*贝贝 961*往事 871*乐霸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>533*柠檬    978*立春 976*虚空假面 977*雨泺 961*往事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风的眼泪浮335</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -974,10 +985,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I69"/>
+  <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B31" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="F74" sqref="F74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -986,6 +997,7 @@
     <col min="4" max="6" width="18.75" customWidth="1"/>
     <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="40.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -2104,7 +2116,7 @@
         <v>20131009</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="94.5">
+    <row r="58" spans="1:9" ht="27">
       <c r="A58">
         <v>977</v>
       </c>
@@ -2112,13 +2124,13 @@
         <v>270979221</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G58">
         <v>20131026</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>124</v>
+        <v>148</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -2129,10 +2141,10 @@
         <v>373168212</v>
       </c>
       <c r="C59" t="s">
+        <v>126</v>
+      </c>
+      <c r="D59" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>128</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
@@ -2140,7 +2152,7 @@
         <v>20131026</v>
       </c>
       <c r="I59" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -2151,13 +2163,13 @@
         <v>909228865</v>
       </c>
       <c r="C60" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I60" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -2174,7 +2186,7 @@
         <v>35</v>
       </c>
       <c r="F61" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G61">
         <v>20131028</v>
@@ -2191,13 +2203,13 @@
         <v>447571329</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G62">
         <v>20131028</v>
       </c>
       <c r="I62" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -2208,16 +2220,16 @@
         <v>21022514</v>
       </c>
       <c r="C63" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G63">
         <v>20131028</v>
       </c>
       <c r="I63" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -2248,16 +2260,16 @@
         <v>364144013</v>
       </c>
       <c r="C65" t="s">
+        <v>137</v>
+      </c>
+      <c r="D65" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D65" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="G65">
-        <v>20131004</v>
+        <v>20131104</v>
       </c>
       <c r="I65" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -2268,40 +2280,87 @@
         <v>1746035119</v>
       </c>
       <c r="C66" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G66">
-        <v>20131004</v>
+        <v>20131104</v>
       </c>
       <c r="I66" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67">
+        <v>567</v>
+      </c>
+      <c r="B67">
+        <v>28690655</v>
+      </c>
+      <c r="D67" s="1" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="67" spans="1:9">
-      <c r="D67" s="1" t="s">
+      <c r="G67">
+        <v>20131104</v>
+      </c>
+      <c r="I67" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68">
+        <v>937</v>
+      </c>
+      <c r="B68">
+        <v>492338098</v>
+      </c>
+      <c r="D68" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="G67">
-        <v>20131004</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
-      <c r="D68" s="1" t="s">
+      <c r="G68">
+        <v>20131104</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69">
+        <v>545</v>
+      </c>
+      <c r="B69">
+        <v>394905459</v>
+      </c>
+      <c r="C69" t="s">
+        <v>119</v>
+      </c>
+      <c r="D69" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="G68">
-        <v>20131004</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
-      <c r="D69" s="1" t="s">
-        <v>146</v>
-      </c>
       <c r="G69">
-        <v>20131004</v>
+        <v>20131104</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70">
+        <v>692</v>
+      </c>
+      <c r="B70">
+        <v>1356622020</v>
+      </c>
+      <c r="C70" t="s">
+        <v>54</v>
+      </c>
+      <c r="D70" t="s">
+        <v>149</v>
+      </c>
+      <c r="E70" t="s">
+        <v>84</v>
+      </c>
+      <c r="G70">
+        <v>20131105</v>
       </c>
     </row>
   </sheetData>

--- a/开心果园.xlsx
+++ b/开心果园.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="166">
   <si>
     <t>QQ</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -611,6 +611,70 @@
   </si>
   <si>
     <t>风的眼泪浮335</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>digher007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老婆很烦老公</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">黑洞 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb971767_00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>840*兔子  515*征途970*花花    961*往事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乱世漂流[坑货]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>妖妖是个好宝宝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">*绿茶 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尔顿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>346327918(茶醉人)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yvonne551</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青霞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>961*往事490*小建817*尔顿989*小文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(茶醉人)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">一清2楚 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>961*往事429*尛尛 509*树影 833*东仔</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -985,1382 +1049,1514 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I70"/>
+  <dimension ref="A1:J77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="F74" sqref="F74"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="3" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="18.75" customWidth="1"/>
-    <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5" customWidth="1"/>
-    <col min="9" max="9" width="40.5" customWidth="1"/>
+    <col min="3" max="4" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="18.75" customWidth="1"/>
+    <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5" customWidth="1"/>
+    <col min="10" max="10" width="40.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>107</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>83</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>796</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>270093508</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>108</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>20131006</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>855</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>1561108820</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>108</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>20131006</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>990</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>583651463</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>108</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4">
+      <c r="G4" s="1"/>
+      <c r="H4">
         <v>20131007</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="C5" t="s">
+    <row r="5" spans="1:9">
+      <c r="D5" t="s">
         <v>15</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>16</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>108</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>20131007</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>967</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>78831384</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>17</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>70</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>108</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>20131007</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>145</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>21022514</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>20</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>19</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>108</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>20131008</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>397</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>501278495</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>24</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>22</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>108</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>20131009</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>193</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>25</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>26</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>27</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>108</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>20131009</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>618</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>452706128</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>29</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>30</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>108</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>20131009</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>143</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>517782454</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>31</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>32</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>108</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>20131009</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>527</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>449126028</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>33</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>35</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>108</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>20131010</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>711</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>254489858</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>36</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>37</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>108</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>20131010</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:9">
       <c r="A14">
         <v>935</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>361615017</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>38</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>39</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>108</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>20131010</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:9">
       <c r="A15">
         <v>280</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <v>584073285</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>44</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>45</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>108</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>20131010</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:9">
       <c r="A16">
         <v>737</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>736643299</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>40</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>41</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>108</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>20131011</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>167</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <v>314281260</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>42</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>43</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>108</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>20131011</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:8">
       <c r="A18">
         <v>716</v>
       </c>
-      <c r="B18">
+      <c r="C18">
         <v>929242458</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>46</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>47</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>108</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>20131011</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:8">
       <c r="A19">
         <v>913</v>
       </c>
-      <c r="B19">
+      <c r="C19">
         <v>1735400402</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>49</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>48</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>108</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>20131012</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="17.25" customHeight="1">
+    <row r="20" spans="1:8" ht="17.25" customHeight="1">
       <c r="A20">
         <v>624</v>
       </c>
-      <c r="B20">
+      <c r="C20">
         <v>546175872</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>108</v>
       </c>
-      <c r="F20" s="1"/>
-      <c r="G20">
+      <c r="G20" s="1"/>
+      <c r="H20">
         <v>20131012</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:8">
       <c r="A21">
         <v>886</v>
       </c>
-      <c r="B21">
+      <c r="C21">
         <v>496273815</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>52</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>53</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>108</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>20131013</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:8">
       <c r="A22">
         <v>692</v>
       </c>
-      <c r="B22">
+      <c r="C22">
         <v>1356622020</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>54</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>55</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>108</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>20131013</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:8">
       <c r="A23">
         <v>963</v>
       </c>
-      <c r="B23">
+      <c r="C23">
         <v>1195526579</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>56</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="G23">
+      <c r="G23" s="1"/>
+      <c r="H23">
         <v>20131013</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:8">
       <c r="A24">
         <v>41</v>
       </c>
-      <c r="B24">
+      <c r="C24">
         <v>1628666197</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E24" s="1"/>
       <c r="F24" s="1"/>
-      <c r="G24">
+      <c r="G24" s="1"/>
+      <c r="H24">
         <v>20131014</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:8">
       <c r="A25">
         <v>274</v>
       </c>
-      <c r="B25">
+      <c r="C25">
         <v>762745630</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>60</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="F25" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F25" s="1"/>
-      <c r="G25">
+      <c r="G25" s="1"/>
+      <c r="H25">
         <v>20131014</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:8">
       <c r="A26">
         <v>687</v>
       </c>
-      <c r="B26">
+      <c r="C26">
         <v>1193219632</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>62</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="F26" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F26" s="1"/>
-      <c r="G26">
+      <c r="G26" s="1"/>
+      <c r="H26">
         <v>20131014</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:8">
       <c r="A27">
         <v>880</v>
       </c>
-      <c r="B27">
+      <c r="C27">
         <v>41732893</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>64</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E27" s="1"/>
       <c r="F27" s="1"/>
-      <c r="G27">
+      <c r="G27" s="1"/>
+      <c r="H27">
         <v>20131014</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:8">
       <c r="A28">
         <v>429</v>
       </c>
-      <c r="B28">
+      <c r="C28">
         <v>601450649</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>67</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E28" s="1"/>
       <c r="F28" s="1"/>
-      <c r="G28">
+      <c r="G28" s="1"/>
+      <c r="H28">
         <v>20131015</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:8">
       <c r="A29">
         <v>958</v>
       </c>
-      <c r="B29">
+      <c r="C29">
         <v>1264356453</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>69</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E29" s="1"/>
       <c r="F29" s="1"/>
-      <c r="G29">
+      <c r="G29" s="1"/>
+      <c r="H29">
         <v>20131015</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:8">
       <c r="A30">
         <v>198</v>
       </c>
-      <c r="B30">
+      <c r="C30">
         <v>536474664</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>72</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E30" s="1"/>
       <c r="F30" s="1"/>
-      <c r="G30">
+      <c r="G30" s="1"/>
+      <c r="H30">
         <v>20131015</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:8">
       <c r="A31">
         <v>404</v>
       </c>
-      <c r="B31">
+      <c r="C31">
         <v>541640122</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>74</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E31" s="1"/>
       <c r="F31" s="1"/>
-      <c r="G31">
+      <c r="G31" s="1"/>
+      <c r="H31">
         <v>20131015</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:8">
       <c r="A32">
         <v>833</v>
       </c>
-      <c r="B32">
+      <c r="C32">
         <v>1009490301</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>76</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E32" s="1"/>
       <c r="F32" s="1"/>
-      <c r="G32">
+      <c r="G32" s="1"/>
+      <c r="H32">
         <v>20131016</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:9">
       <c r="A33">
         <v>533</v>
       </c>
-      <c r="B33">
+      <c r="C33">
         <v>1569428495</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>78</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E33" s="1"/>
       <c r="F33" s="1"/>
-      <c r="G33">
+      <c r="G33" s="1"/>
+      <c r="H33">
         <v>20131016</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:9">
       <c r="A34">
         <v>200</v>
       </c>
-      <c r="B34">
+      <c r="C34">
         <v>82224837</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>79</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E34" s="1"/>
       <c r="F34" s="1"/>
-      <c r="G34">
+      <c r="G34" s="1"/>
+      <c r="H34">
         <v>20131016</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:9">
       <c r="A35">
         <v>989</v>
       </c>
-      <c r="B35">
+      <c r="C35">
         <v>578586359</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>81</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="E35" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E35" s="1"/>
       <c r="F35" s="1"/>
-      <c r="G35">
+      <c r="G35" s="1"/>
+      <c r="H35">
         <v>20131016</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:9">
       <c r="A36">
         <v>990</v>
       </c>
-      <c r="B36">
+      <c r="C36">
         <v>583651463</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>12</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="E36" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1" t="s">
+      <c r="F36" s="1"/>
+      <c r="G36" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>20131007</v>
       </c>
-      <c r="H36" t="s">
+      <c r="I36" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:9">
       <c r="A37">
         <v>387</v>
       </c>
-      <c r="B37">
+      <c r="C37">
         <v>1024636223</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>86</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="E37" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E37" s="1"/>
-      <c r="G37">
+      <c r="F37" s="1"/>
+      <c r="H37">
         <v>20131007</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:9">
       <c r="A38">
         <v>0</v>
       </c>
-      <c r="B38">
+      <c r="C38">
         <v>497366625</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>88</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="E38" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E38" s="1"/>
-      <c r="G38">
+      <c r="F38" s="1"/>
+      <c r="H38">
         <v>20131007</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:9">
       <c r="A39">
         <v>703</v>
       </c>
-      <c r="B39">
+      <c r="C39">
         <v>394513352</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>90</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="E39" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E39" s="1"/>
-      <c r="G39">
+      <c r="F39" s="1"/>
+      <c r="H39">
         <v>20131007</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:9">
       <c r="A40">
         <v>495</v>
       </c>
-      <c r="B40">
+      <c r="C40">
         <v>775826250</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>92</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="E40" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E40" s="1"/>
-    </row>
-    <row r="41" spans="1:8">
+      <c r="F40" s="1"/>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41">
         <v>993</v>
       </c>
-      <c r="B41">
+      <c r="C41">
         <v>563787904</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>93</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="E41" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E41" s="1"/>
-      <c r="G41">
+      <c r="F41" s="1"/>
+      <c r="H41">
         <v>20131019</v>
       </c>
     </row>
-    <row r="42" spans="1:8" s="2" customFormat="1">
+    <row r="42" spans="1:9" s="2" customFormat="1">
       <c r="A42" s="2">
         <v>982</v>
       </c>
-      <c r="B42" s="2">
+      <c r="C42" s="2">
         <v>1850607531</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="D42" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="E42" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="E42" s="3"/>
-      <c r="G42" s="2">
+      <c r="F42" s="3"/>
+      <c r="H42" s="2">
         <v>20131019</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:9">
       <c r="A43">
         <v>341</v>
       </c>
-      <c r="B43">
+      <c r="C43">
         <v>578315584</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>97</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="E43" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E43" s="1"/>
-      <c r="G43">
+      <c r="F43" s="1"/>
+      <c r="H43">
         <v>20131019</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:9">
       <c r="A44">
         <v>632</v>
       </c>
-      <c r="B44">
+      <c r="C44">
         <v>88480640</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>100</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="E44" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E44" s="1"/>
-      <c r="G44">
+      <c r="F44" s="1"/>
+      <c r="H44">
         <v>20131019</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:9">
       <c r="A45">
         <v>100</v>
       </c>
-      <c r="B45">
+      <c r="C45">
         <v>27378813</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>101</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="E45" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E45" s="1"/>
-      <c r="G45">
+      <c r="F45" s="1"/>
+      <c r="H45">
         <v>20131020</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:9">
       <c r="A46">
         <v>547</v>
       </c>
-      <c r="B46">
+      <c r="C46">
         <v>499596534</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>104</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="E46" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="E46" s="1"/>
-      <c r="G46">
+      <c r="F46" s="1"/>
+      <c r="H46">
         <v>20131020</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:9">
       <c r="A47">
         <v>37</v>
       </c>
-      <c r="B47">
+      <c r="C47">
         <v>470879658</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>105</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="E47" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="E47" s="1"/>
-      <c r="G47">
+      <c r="F47" s="1"/>
+      <c r="H47">
         <v>20131020</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:9">
       <c r="A48">
         <v>340</v>
       </c>
-      <c r="B48">
+      <c r="C48">
         <v>262378567</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>112</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="E48" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="G48">
+      <c r="H48">
         <v>20131021</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:10">
       <c r="A49">
         <v>956</v>
       </c>
-      <c r="B49">
+      <c r="C49">
         <v>460482563</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>110</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="E49" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="G49">
+      <c r="H49">
         <v>20131021</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:10">
       <c r="A50">
         <v>976</v>
       </c>
-      <c r="B50">
+      <c r="C50">
         <v>529661869</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>113</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="E50" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="G50">
+      <c r="H50">
         <v>20131021</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:10">
       <c r="A51">
         <v>167</v>
       </c>
-      <c r="B51">
+      <c r="C51">
         <v>314281260</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>42</v>
       </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
         <v>43</v>
       </c>
-      <c r="F51" t="s">
+      <c r="G51" t="s">
         <v>122</v>
       </c>
-      <c r="G51">
+      <c r="H51">
         <v>20131022</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:10">
       <c r="A52">
         <v>429</v>
       </c>
-      <c r="B52">
+      <c r="C52">
         <v>601450649</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>67</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="E52" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="G52">
+      <c r="H52">
         <v>20131022</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:10">
       <c r="A53">
         <v>222</v>
       </c>
-      <c r="B53">
+      <c r="C53">
         <v>309722823</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>120</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="E53" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="G53">
+      <c r="H53">
         <v>20131023</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:10">
       <c r="A54">
         <v>359</v>
       </c>
-      <c r="B54">
+      <c r="C54">
         <v>282015757</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
         <v>117</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="E54" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="G54">
+      <c r="H54">
         <v>20131023</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:10">
       <c r="A55">
         <v>545</v>
       </c>
-      <c r="B55">
+      <c r="C55">
         <v>394905459</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
         <v>119</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="E55" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="G55">
+      <c r="H55">
         <v>20131024</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:10">
       <c r="A56">
         <v>533</v>
       </c>
-      <c r="B56">
+      <c r="C56">
         <v>1569428495</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
         <v>78</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="E56" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1" t="s">
+      <c r="F56" s="1"/>
+      <c r="G56" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="G56">
+      <c r="H56">
         <v>20131025</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:10">
       <c r="A57">
         <v>143</v>
       </c>
-      <c r="B57">
+      <c r="C57">
         <v>517782454</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
         <v>31</v>
       </c>
-      <c r="D57" t="s">
+      <c r="E57" t="s">
         <v>32</v>
       </c>
-      <c r="F57" t="s">
+      <c r="G57" t="s">
         <v>123</v>
       </c>
-      <c r="G57">
+      <c r="H57">
         <v>20131009</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="27">
+    <row r="58" spans="1:10" ht="27">
       <c r="A58">
         <v>977</v>
       </c>
-      <c r="B58">
+      <c r="C58">
         <v>270979221</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="E58" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="G58">
+      <c r="H58">
         <v>20131026</v>
       </c>
-      <c r="I58" s="1" t="s">
+      <c r="J58" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:10">
       <c r="A59">
         <v>124</v>
       </c>
-      <c r="B59">
+      <c r="C59">
         <v>373168212</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
         <v>126</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="E59" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E59" s="1"/>
       <c r="F59" s="1"/>
-      <c r="G59">
+      <c r="G59" s="1"/>
+      <c r="H59">
         <v>20131026</v>
       </c>
-      <c r="I59" t="s">
+      <c r="J59" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:10">
       <c r="A60">
         <v>218</v>
       </c>
-      <c r="B60">
+      <c r="C60">
         <v>909228865</v>
       </c>
-      <c r="C60" t="s">
+      <c r="D60" t="s">
         <v>130</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="E60" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="I60" t="s">
+      <c r="J60" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:10">
       <c r="A61">
         <v>527</v>
       </c>
-      <c r="B61">
+      <c r="C61">
         <v>449126028</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D61" t="s">
         <v>33</v>
       </c>
-      <c r="D61" t="s">
+      <c r="E61" t="s">
         <v>35</v>
       </c>
-      <c r="F61" t="s">
+      <c r="G61" t="s">
         <v>131</v>
       </c>
-      <c r="G61">
+      <c r="H61">
         <v>20131028</v>
       </c>
-      <c r="H61" t="s">
+      <c r="I61" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:10">
       <c r="A62">
         <v>978</v>
       </c>
-      <c r="B62">
+      <c r="C62">
         <v>447571329</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="E62" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="G62">
+      <c r="H62">
         <v>20131028</v>
       </c>
-      <c r="I62" t="s">
+      <c r="J62" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:10">
       <c r="A63">
         <v>145</v>
       </c>
-      <c r="B63">
+      <c r="C63">
         <v>21022514</v>
       </c>
-      <c r="C63" t="s">
+      <c r="D63" t="s">
         <v>136</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="E63" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="G63">
+      <c r="H63">
         <v>20131028</v>
       </c>
-      <c r="I63" t="s">
+      <c r="J63" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:10">
       <c r="A64">
         <v>935</v>
       </c>
-      <c r="B64">
+      <c r="C64">
         <v>361615017</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D64" t="s">
         <v>38</v>
       </c>
-      <c r="D64" t="s">
+      <c r="E64" t="s">
         <v>39</v>
       </c>
-      <c r="E64" t="s">
+      <c r="F64" t="s">
         <v>84</v>
       </c>
-      <c r="G64">
+      <c r="H64">
         <v>20131103</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:10">
       <c r="A65">
         <v>936</v>
       </c>
-      <c r="B65">
+      <c r="C65">
         <v>364144013</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D65" t="s">
         <v>137</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="E65" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="G65">
+      <c r="H65">
         <v>20131104</v>
       </c>
-      <c r="I65" t="s">
+      <c r="J65" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:10">
       <c r="A66">
         <v>349</v>
       </c>
-      <c r="B66">
+      <c r="C66">
         <v>1746035119</v>
       </c>
-      <c r="C66" t="s">
+      <c r="D66" t="s">
         <v>140</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="E66" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="G66">
+      <c r="H66">
         <v>20131104</v>
       </c>
-      <c r="I66" t="s">
+      <c r="J66" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:10">
       <c r="A67">
         <v>567</v>
       </c>
-      <c r="B67">
+      <c r="C67">
         <v>28690655</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="E67" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="G67">
+      <c r="H67">
         <v>20131104</v>
       </c>
-      <c r="I67" t="s">
+      <c r="J67" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:10">
       <c r="A68">
         <v>937</v>
       </c>
-      <c r="B68">
+      <c r="C68">
         <v>492338098</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="E68" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="G68">
+      <c r="H68">
         <v>20131104</v>
       </c>
-      <c r="I68" s="1" t="s">
+      <c r="J68" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:10">
       <c r="A69">
         <v>545</v>
       </c>
-      <c r="B69">
+      <c r="C69">
         <v>394905459</v>
       </c>
-      <c r="C69" t="s">
+      <c r="D69" t="s">
         <v>119</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="E69" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="G69">
+      <c r="H69">
         <v>20131104</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:10">
       <c r="A70">
         <v>692</v>
       </c>
-      <c r="B70">
+      <c r="C70">
         <v>1356622020</v>
       </c>
-      <c r="C70" t="s">
+      <c r="D70" t="s">
         <v>54</v>
       </c>
-      <c r="D70" t="s">
+      <c r="E70" t="s">
         <v>149</v>
       </c>
-      <c r="E70" t="s">
+      <c r="F70" t="s">
         <v>84</v>
       </c>
-      <c r="G70">
+      <c r="H70">
         <v>20131105</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="A71">
+        <v>817</v>
+      </c>
+      <c r="C71">
+        <v>498300943</v>
+      </c>
+      <c r="D71" t="s">
+        <v>158</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72">
+        <v>748</v>
+      </c>
+      <c r="C72">
+        <v>283560618</v>
+      </c>
+      <c r="D72" t="s">
+        <v>152</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H72">
+        <v>20131110</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" s="2" customFormat="1">
+      <c r="A73" s="2">
+        <v>970</v>
+      </c>
+      <c r="C73" s="2">
+        <v>1073376232</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="H73">
+        <v>20131110</v>
+      </c>
+      <c r="J73" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="A74">
+        <v>156</v>
+      </c>
+      <c r="C74">
+        <v>945692145</v>
+      </c>
+      <c r="D74" t="s">
+        <v>157</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H74">
+        <v>20131114</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75">
+        <v>625</v>
+      </c>
+      <c r="B75" t="s">
+        <v>163</v>
+      </c>
+      <c r="C75" t="s">
+        <v>159</v>
+      </c>
+      <c r="D75" t="s">
+        <v>161</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H75">
+        <v>20131116</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="A76">
+        <v>989</v>
+      </c>
+      <c r="C76">
+        <v>578586359</v>
+      </c>
+      <c r="D76" t="s">
+        <v>81</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76">
+        <v>20131116</v>
+      </c>
+      <c r="J76" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="A77">
+        <v>833</v>
+      </c>
+      <c r="C77">
+        <v>1009490301</v>
+      </c>
+      <c r="D77" t="s">
+        <v>76</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77">
+        <v>20131117</v>
+      </c>
+      <c r="J77" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>

--- a/开心果园.xlsx
+++ b/开心果园.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="169">
   <si>
     <t>QQ</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -675,6 +675,18 @@
   </si>
   <si>
     <t>961*往事429*尛尛 509*树影 833*东仔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桑雪满天888</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">赤着脚的天使 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(茶醉人)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1049,10 +1061,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J77"/>
+  <dimension ref="A1:J78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="C80" sqref="C80"/>
+      <selection activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2557,6 +2569,26 @@
       </c>
       <c r="J77" t="s">
         <v>165</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="A78">
+        <v>222</v>
+      </c>
+      <c r="B78" t="s">
+        <v>168</v>
+      </c>
+      <c r="C78">
+        <v>309722823</v>
+      </c>
+      <c r="D78" t="s">
+        <v>167</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H78">
+        <v>20131123</v>
       </c>
     </row>
   </sheetData>
